--- a/Jogos_do_Dia/2023-05-23_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-05-23_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI34"/>
+  <dimension ref="A1:AI36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -642,13 +642,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="I2" t="n">
-        <v>1.57</v>
+        <v>1.51</v>
       </c>
       <c r="J2" t="n">
         <v>1.04</v>
@@ -663,10 +663,10 @@
         <v>3.1</v>
       </c>
       <c r="N2" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="O2" t="n">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="P2" t="n">
         <v>1.4</v>
@@ -705,28 +705,28 @@
         <v>3.79</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD2" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="3">
@@ -748,100 +748,100 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Chengdu Better City FC</t>
+          <t>Changchun Yatai</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Shanghai Shenhua</t>
+          <t>Qingdao Jonoon</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.91</v>
+        <v>1.79</v>
       </c>
       <c r="H3" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="I3" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="J3" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K3" t="n">
-        <v>8.5</v>
+        <v>10.5</v>
       </c>
       <c r="L3" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M3" t="n">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="N3" t="n">
-        <v>1.92</v>
+        <v>1.84</v>
       </c>
       <c r="O3" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="P3" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.85</v>
+        <v>2.9</v>
       </c>
       <c r="R3" t="n">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="S3" t="n">
-        <v>1.9</v>
+        <v>1.96</v>
       </c>
       <c r="T3" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="U3" t="n">
         <v>1.28</v>
       </c>
       <c r="V3" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="W3" t="n">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="X3" t="n">
-        <v>2.33</v>
+        <v>0.25</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.88</v>
+        <v>1.59</v>
       </c>
       <c r="Z3" t="n">
-        <v>1.32</v>
+        <v>1.41</v>
       </c>
       <c r="AA3" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD3" t="n">
-        <v>0</v>
+        <v>2.73</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>2.19</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>2.93</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>4.15</v>
       </c>
     </row>
     <row r="4">
@@ -872,13 +872,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="H4" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="I4" t="n">
-        <v>6.5</v>
+        <v>6.2</v>
       </c>
       <c r="J4" t="n">
         <v>1.02</v>
@@ -893,10 +893,10 @@
         <v>3.08</v>
       </c>
       <c r="N4" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="O4" t="n">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="P4" t="n">
         <v>1.42</v>
@@ -935,28 +935,28 @@
         <v>2.49</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>5.75</v>
       </c>
       <c r="AD4" t="n">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="AE4" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AF4" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AG4" t="n">
-        <v>0</v>
+        <v>2.27</v>
       </c>
       <c r="AH4" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="5">
@@ -978,106 +978,106 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Changchun Yatai</t>
+          <t>Chengdu Better City FC</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Qingdao Jonoon</t>
+          <t>Shanghai Shenhua</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="H5" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="I5" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="J5" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K5" t="n">
-        <v>10.5</v>
+        <v>8.5</v>
       </c>
       <c r="L5" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M5" t="n">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="N5" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="O5" t="n">
-        <v>1.82</v>
+        <v>1.74</v>
       </c>
       <c r="P5" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.9</v>
+        <v>2.85</v>
       </c>
       <c r="R5" t="n">
-        <v>1.8</v>
+        <v>1.86</v>
       </c>
       <c r="S5" t="n">
-        <v>1.96</v>
+        <v>1.9</v>
       </c>
       <c r="T5" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="U5" t="n">
         <v>1.28</v>
       </c>
       <c r="V5" t="n">
-        <v>1.94</v>
+        <v>1.9</v>
       </c>
       <c r="W5" t="n">
+        <v>2</v>
+      </c>
+      <c r="X5" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB5" t="n">
         <v>1.33</v>
       </c>
-      <c r="X5" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>3</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>0</v>
-      </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>3.85</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="AG5" t="n">
-        <v>0</v>
+        <v>2.11</v>
       </c>
       <c r="AH5" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>3.86</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Egypt Egyptian Premier League</t>
+          <t>Bulgaria First League</t>
         </is>
       </c>
       <c r="B6" s="2" t="n">
@@ -1085,84 +1085,84 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>10:30:00</t>
+          <t>11:30:00</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Aswan FC</t>
+          <t>Lokomotiv Sofia 1929</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>National Bank of Egypt</t>
+          <t>Slavia Sofia</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.6</v>
+        <v>3.02</v>
       </c>
       <c r="H6" t="n">
-        <v>2.95</v>
+        <v>2.89</v>
       </c>
       <c r="I6" t="n">
-        <v>2.65</v>
+        <v>2.52</v>
       </c>
       <c r="J6" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="K6" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="L6" t="n">
-        <v>1.43</v>
+        <v>1.37</v>
       </c>
       <c r="M6" t="n">
-        <v>2.63</v>
+        <v>2.8</v>
       </c>
       <c r="N6" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="O6" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="P6" t="n">
-        <v>1.51</v>
+        <v>1.49</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.33</v>
+        <v>2.59</v>
       </c>
       <c r="R6" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="S6" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="T6" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="U6" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="V6" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="W6" t="n">
-        <v>1.21</v>
+        <v>1.67</v>
       </c>
       <c r="X6" t="n">
-        <v>0.36</v>
+        <v>1.4</v>
       </c>
       <c r="Y6" t="n">
-        <v>1.37</v>
+        <v>1.53</v>
       </c>
       <c r="Z6" t="n">
-        <v>1.17</v>
+        <v>1.47</v>
       </c>
       <c r="AA6" t="n">
-        <v>2.54</v>
+        <v>3</v>
       </c>
       <c r="AB6" t="n">
         <v>0</v>
@@ -1177,13 +1177,13 @@
         <v>0</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.52</v>
+        <v>0</v>
       </c>
       <c r="AG6" t="n">
-        <v>1.86</v>
+        <v>0</v>
       </c>
       <c r="AH6" t="n">
-        <v>2.32</v>
+        <v>0</v>
       </c>
       <c r="AI6" t="n">
         <v>0</v>
@@ -1192,7 +1192,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Bulgaria First League</t>
+          <t>Estonia Meistriliiga</t>
         </is>
       </c>
       <c r="B7" s="2" t="n">
@@ -1200,84 +1200,84 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>11:30:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Lokomotiv Sofia 1929</t>
+          <t>Trans</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Slavia Sofia</t>
+          <t>Tallinna FC Flora</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3</v>
+        <v>9.08</v>
       </c>
       <c r="H7" t="n">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="I7" t="n">
-        <v>2.52</v>
+        <v>1.23</v>
       </c>
       <c r="J7" t="n">
-        <v>1.08</v>
+        <v>1.02</v>
       </c>
       <c r="K7" t="n">
-        <v>6.5</v>
+        <v>18</v>
       </c>
       <c r="L7" t="n">
-        <v>1.37</v>
+        <v>1.18</v>
       </c>
       <c r="M7" t="n">
-        <v>2.8</v>
+        <v>4.3</v>
       </c>
       <c r="N7" t="n">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="O7" t="n">
-        <v>1.57</v>
+        <v>2.19</v>
       </c>
       <c r="P7" t="n">
-        <v>1.49</v>
+        <v>1.29</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.59</v>
+        <v>3.24</v>
       </c>
       <c r="R7" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="S7" t="n">
-        <v>1.76</v>
+        <v>1.7</v>
       </c>
       <c r="T7" t="n">
-        <v>1.53</v>
+        <v>3.6</v>
       </c>
       <c r="U7" t="n">
-        <v>1.37</v>
+        <v>1.07</v>
       </c>
       <c r="V7" t="n">
-        <v>1.39</v>
+        <v>1.01</v>
       </c>
       <c r="W7" t="n">
-        <v>1.67</v>
+        <v>0.86</v>
       </c>
       <c r="X7" t="n">
-        <v>1.4</v>
+        <v>2.71</v>
       </c>
       <c r="Y7" t="n">
-        <v>1.53</v>
+        <v>1.46</v>
       </c>
       <c r="Z7" t="n">
-        <v>1.47</v>
+        <v>1.99</v>
       </c>
       <c r="AA7" t="n">
-        <v>3</v>
+        <v>3.45</v>
       </c>
       <c r="AB7" t="n">
         <v>0</v>
@@ -1307,7 +1307,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Estonia Meistriliiga</t>
+          <t>Slovakia Super Liga</t>
         </is>
       </c>
       <c r="B8" s="2" t="n">
@@ -1315,108 +1315,108 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>12:30:00</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Trans</t>
+          <t>Dukla Banská Bystrica</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Tallinna FC Flora</t>
+          <t>Žilina</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>2.95</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="W8" t="n">
-        <v>0.86</v>
+        <v>1.38</v>
       </c>
       <c r="X8" t="n">
-        <v>2.71</v>
+        <v>1.22</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.46</v>
+        <v>1.82</v>
       </c>
       <c r="Z8" t="n">
-        <v>1.99</v>
+        <v>1.54</v>
       </c>
       <c r="AA8" t="n">
-        <v>3.45</v>
+        <v>3.36</v>
       </c>
       <c r="AB8" t="n">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AD8" t="n">
-        <v>0</v>
+        <v>2.17</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="AF8" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AG8" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AH8" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="9">
@@ -1438,106 +1438,106 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Dukla Banská Bystrica</t>
+          <t>Podbrezová</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Žilina</t>
+          <t>Ružomberok</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>2.78</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>3.26</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>8.9</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>3.48</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>2.82</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="W9" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="X9" t="n">
-        <v>1.22</v>
+        <v>1.47</v>
       </c>
       <c r="Y9" t="n">
         <v>1.82</v>
       </c>
       <c r="Z9" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="AA9" t="n">
-        <v>3.36</v>
+        <v>3.39</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>8.9</v>
       </c>
       <c r="AD9" t="n">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="AE9" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AF9" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AG9" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="AH9" t="n">
-        <v>0</v>
+        <v>2.01</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>2.57</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Slovakia Super Liga</t>
+          <t>Egypt Egyptian Premier League</t>
         </is>
       </c>
       <c r="B10" s="2" t="n">
@@ -1545,108 +1545,108 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>12:30:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Podbrezová</t>
+          <t>Aswan FC</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Ružomberok</t>
+          <t>National Bank of Egypt</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>2.54</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2.84</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>2.57</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>2.33</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="W10" t="n">
-        <v>1.47</v>
+        <v>1.21</v>
       </c>
       <c r="X10" t="n">
-        <v>1.47</v>
+        <v>0.36</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.82</v>
+        <v>1.37</v>
       </c>
       <c r="Z10" t="n">
-        <v>1.57</v>
+        <v>1.17</v>
       </c>
       <c r="AA10" t="n">
-        <v>3.39</v>
+        <v>2.54</v>
       </c>
       <c r="AB10" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>6.7</v>
       </c>
       <c r="AD10" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="AE10" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AF10" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="AG10" t="n">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="AH10" t="n">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -1677,52 +1677,52 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>5.7</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>13.7</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>15.75</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>3.97</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>3.03</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W11" t="n">
         <v>1.9</v>
@@ -1767,7 +1767,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Estonia Meistriliiga</t>
+          <t>Bulgaria First League</t>
         </is>
       </c>
       <c r="B12" s="2" t="n">
@@ -1779,80 +1779,80 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Harju Jalgpallikool</t>
+          <t>Arda</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Kuressaare</t>
+          <t>Botev Plovdiv</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>3.24</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>3.96</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>2.91</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="W12" t="n">
-        <v>0.43</v>
+        <v>1.75</v>
       </c>
       <c r="X12" t="n">
-        <v>2.4</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="Y12" t="n">
-        <v>1.27</v>
+        <v>1.73</v>
       </c>
       <c r="Z12" t="n">
-        <v>1.77</v>
+        <v>1.4</v>
       </c>
       <c r="AA12" t="n">
-        <v>3.04</v>
+        <v>3.13</v>
       </c>
       <c r="AB12" t="n">
         <v>0</v>
@@ -1898,106 +1898,106 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Slovácko</t>
+          <t>Viktoria Plzeň</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Sparta Praha</t>
+          <t>Bohemians 1905</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>3.45</v>
+        <v>1.36</v>
       </c>
       <c r="H13" t="n">
-        <v>3.3</v>
+        <v>3.98</v>
       </c>
       <c r="I13" t="n">
-        <v>2</v>
+        <v>5.48</v>
       </c>
       <c r="J13" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L13" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4.71</v>
+      </c>
+      <c r="N13" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="O13" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S13" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="T13" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="V13" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W13" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="X13" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF13" t="n">
         <v>1.22</v>
       </c>
-      <c r="M13" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="N13" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="O13" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="P13" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="S13" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="T13" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="W13" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="X13" t="n">
-        <v>2.31</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>3.33</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>0</v>
-      </c>
       <c r="AG13" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="AH13" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Bulgaria First League</t>
+          <t>Czech Republic First League</t>
         </is>
       </c>
       <c r="B14" s="2" t="n">
@@ -2009,104 +2009,104 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Arda</t>
+          <t>Sigma Olomouc</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Botev Plovdiv</t>
+          <t>Slavia Praha</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.73</v>
+        <v>4.5</v>
       </c>
       <c r="H14" t="n">
-        <v>3.45</v>
+        <v>3.62</v>
       </c>
       <c r="I14" t="n">
-        <v>4.5</v>
+        <v>1.49</v>
       </c>
       <c r="J14" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K14" t="n">
-        <v>9.6</v>
+        <v>15.5</v>
       </c>
       <c r="L14" t="n">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="M14" t="n">
-        <v>3.4</v>
+        <v>4.25</v>
       </c>
       <c r="N14" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="O14" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="S14" t="n">
         <v>2.04</v>
       </c>
-      <c r="O14" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="P14" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1.86</v>
-      </c>
       <c r="T14" t="n">
-        <v>1.26</v>
+        <v>2.4</v>
       </c>
       <c r="U14" t="n">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="V14" t="n">
-        <v>1.85</v>
+        <v>1.15</v>
       </c>
       <c r="W14" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X14" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Y14" t="n">
         <v>1.75</v>
       </c>
-      <c r="X14" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>1.73</v>
-      </c>
       <c r="Z14" t="n">
-        <v>1.4</v>
+        <v>1.74</v>
       </c>
       <c r="AA14" t="n">
-        <v>3.13</v>
+        <v>3.49</v>
       </c>
       <c r="AB14" t="n">
-        <v>0</v>
+        <v>4.15</v>
       </c>
       <c r="AC14" t="n">
-        <v>0</v>
+        <v>11.25</v>
       </c>
       <c r="AD14" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AE14" t="n">
         <v>0</v>
       </c>
       <c r="AF14" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AG14" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="AI14" t="n">
-        <v>0</v>
+        <v>2.19</v>
       </c>
     </row>
     <row r="15">
@@ -2128,106 +2128,106 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Viktoria Plzeň</t>
+          <t>Slovácko</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Bohemians 1905</t>
+          <t>Sparta Praha</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.45</v>
+        <v>3.16</v>
       </c>
       <c r="H15" t="n">
-        <v>4.5</v>
+        <v>3.11</v>
       </c>
       <c r="I15" t="n">
-        <v>6</v>
+        <v>1.88</v>
       </c>
       <c r="J15" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="K15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L15" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="M15" t="n">
-        <v>4.71</v>
+        <v>3.8</v>
       </c>
       <c r="N15" t="n">
-        <v>1.52</v>
+        <v>1.85</v>
       </c>
       <c r="O15" t="n">
-        <v>2.21</v>
+        <v>1.99</v>
       </c>
       <c r="P15" t="n">
-        <v>1.26</v>
+        <v>1.35</v>
       </c>
       <c r="Q15" t="n">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="R15" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="S15" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="W15" t="n">
         <v>1.75</v>
       </c>
-      <c r="S15" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="T15" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="U15" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="V15" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="W15" t="n">
-        <v>1.94</v>
-      </c>
       <c r="X15" t="n">
-        <v>1.53</v>
+        <v>2.31</v>
       </c>
       <c r="Y15" t="n">
-        <v>1.93</v>
+        <v>1.67</v>
       </c>
       <c r="Z15" t="n">
-        <v>1.45</v>
+        <v>1.66</v>
       </c>
       <c r="AA15" t="n">
-        <v>3.38</v>
+        <v>3.33</v>
       </c>
       <c r="AB15" t="n">
-        <v>0</v>
+        <v>2.26</v>
       </c>
       <c r="AC15" t="n">
-        <v>0</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AD15" t="n">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="AE15" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AF15" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AG15" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="AH15" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="AI15" t="n">
-        <v>0</v>
+        <v>2.55</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Czech Republic First League</t>
+          <t>Sweden Superettan</t>
         </is>
       </c>
       <c r="B16" s="2" t="n">
@@ -2239,110 +2239,110 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Sigma Olomouc</t>
+          <t>Örgryte</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Slavia Praha</t>
+          <t>GIF Sundsvall</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>5.5</v>
+        <v>2.02</v>
       </c>
       <c r="H16" t="n">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="I16" t="n">
-        <v>1.53</v>
+        <v>3.25</v>
       </c>
       <c r="J16" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K16" t="n">
-        <v>15.5</v>
+        <v>10</v>
       </c>
       <c r="L16" t="n">
         <v>1.22</v>
       </c>
       <c r="M16" t="n">
-        <v>4.25</v>
+        <v>3.8</v>
       </c>
       <c r="N16" t="n">
-        <v>1.62</v>
+        <v>1.82</v>
       </c>
       <c r="O16" t="n">
-        <v>2.03</v>
+        <v>1.82</v>
       </c>
       <c r="P16" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="Q16" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="R16" t="n">
-        <v>1.78</v>
+        <v>1.67</v>
       </c>
       <c r="S16" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="T16" t="n">
-        <v>2.4</v>
+        <v>1.25</v>
       </c>
       <c r="U16" t="n">
         <v>1.22</v>
       </c>
       <c r="V16" t="n">
-        <v>1.15</v>
+        <v>2</v>
       </c>
       <c r="W16" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="X16" t="n">
-        <v>1.44</v>
+        <v>2</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.75</v>
+        <v>1.96</v>
       </c>
       <c r="Z16" t="n">
-        <v>1.74</v>
+        <v>1.64</v>
       </c>
       <c r="AA16" t="n">
-        <v>3.49</v>
+        <v>3.6</v>
       </c>
       <c r="AB16" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AC16" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="AE16" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AF16" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="AG16" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AH16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI16" t="n">
-        <v>0</v>
+        <v>2.65</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Sweden Superettan</t>
+          <t>Estonia Meistriliiga</t>
         </is>
       </c>
       <c r="B17" s="2" t="n">
@@ -2354,104 +2354,104 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Örgryte</t>
+          <t>Harju Jalgpallikool</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>GIF Sundsvall</t>
+          <t>Kuressaare</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.78</v>
+        <v>3.75</v>
       </c>
       <c r="H17" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="I17" t="n">
-        <v>3.9</v>
+        <v>1.7</v>
       </c>
       <c r="J17" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K17" t="n">
-        <v>10</v>
+        <v>15.25</v>
       </c>
       <c r="L17" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M17" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="N17" t="n">
-        <v>1.86</v>
+        <v>1.59</v>
       </c>
       <c r="O17" t="n">
-        <v>1.94</v>
+        <v>1.98</v>
       </c>
       <c r="P17" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="Q17" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="R17" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="S17" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T17" t="n">
-        <v>1.25</v>
+        <v>1.95</v>
       </c>
       <c r="U17" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="V17" t="n">
-        <v>2</v>
+        <v>1.18</v>
       </c>
       <c r="W17" t="n">
-        <v>1</v>
+        <v>0.43</v>
       </c>
       <c r="X17" t="n">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="Y17" t="n">
-        <v>1.96</v>
+        <v>1.27</v>
       </c>
       <c r="Z17" t="n">
-        <v>1.64</v>
+        <v>1.77</v>
       </c>
       <c r="AA17" t="n">
-        <v>3.6</v>
+        <v>3.04</v>
       </c>
       <c r="AB17" t="n">
-        <v>1.65</v>
+        <v>0</v>
       </c>
       <c r="AC17" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="AD17" t="n">
-        <v>2.75</v>
+        <v>0</v>
       </c>
       <c r="AE17" t="n">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.34</v>
+        <v>0</v>
       </c>
       <c r="AG17" t="n">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="AH17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI17" t="n">
-        <v>2.65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2473,100 +2473,100 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Celta de Vigo</t>
+          <t>Real Sociedad</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Girona FC</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.16</v>
+        <v>1.32</v>
       </c>
       <c r="H18" t="n">
-        <v>3.4</v>
+        <v>5.37</v>
       </c>
       <c r="I18" t="n">
-        <v>3.36</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="J18" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K18" t="n">
-        <v>12</v>
+        <v>14.5</v>
       </c>
       <c r="L18" t="n">
-        <v>1.3</v>
+        <v>1.24</v>
       </c>
       <c r="M18" t="n">
-        <v>3.6</v>
+        <v>4.13</v>
       </c>
       <c r="N18" t="n">
-        <v>1.89</v>
+        <v>1.67</v>
       </c>
       <c r="O18" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="P18" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q18" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R18" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S18" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T18" t="n">
-        <v>1.33</v>
+        <v>1.15</v>
       </c>
       <c r="U18" t="n">
-        <v>1.3</v>
+        <v>1.24</v>
       </c>
       <c r="V18" t="n">
-        <v>1.66</v>
+        <v>2.43</v>
       </c>
       <c r="W18" t="n">
-        <v>1.35</v>
+        <v>1.88</v>
       </c>
       <c r="X18" t="n">
-        <v>0.88</v>
+        <v>0.41</v>
       </c>
       <c r="Y18" t="n">
-        <v>1.72</v>
+        <v>1.54</v>
       </c>
       <c r="Z18" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="AA18" t="n">
-        <v>3</v>
+        <v>2.81</v>
       </c>
       <c r="AB18" t="n">
         <v>1.58</v>
       </c>
       <c r="AC18" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AD18" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="AE18" t="n">
-        <v>1.5</v>
+        <v>1.34</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.88</v>
+        <v>1.62</v>
       </c>
       <c r="AG18" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AH18" t="n">
-        <v>3.2</v>
+        <v>2.55</v>
       </c>
       <c r="AI18" t="n">
-        <v>4.4</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="19">
@@ -2588,100 +2588,100 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Real Sociedad</t>
+          <t>Celta de Vigo</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Almería</t>
+          <t>Girona FC</t>
         </is>
       </c>
       <c r="G19" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="H19" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I19" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K19" t="n">
+        <v>12</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M19" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="N19" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>3</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S19" t="n">
+        <v>2</v>
+      </c>
+      <c r="T19" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="W19" t="n">
         <v>1.35</v>
       </c>
-      <c r="H19" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="J19" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="K19" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L19" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="M19" t="n">
-        <v>4.13</v>
-      </c>
-      <c r="N19" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="O19" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="P19" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S19" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="T19" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="U19" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="V19" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="W19" t="n">
-        <v>1.88</v>
-      </c>
       <c r="X19" t="n">
-        <v>0.41</v>
+        <v>0.88</v>
       </c>
       <c r="Y19" t="n">
-        <v>1.54</v>
+        <v>1.72</v>
       </c>
       <c r="Z19" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="AA19" t="n">
-        <v>2.81</v>
+        <v>3</v>
       </c>
       <c r="AB19" t="n">
         <v>1.58</v>
       </c>
       <c r="AC19" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD19" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="AE19" t="n">
-        <v>1.34</v>
+        <v>1.5</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.62</v>
+        <v>1.88</v>
       </c>
       <c r="AG19" t="n">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="AH19" t="n">
-        <v>2.55</v>
+        <v>3.2</v>
       </c>
       <c r="AI19" t="n">
-        <v>3.4</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="20">
@@ -2712,49 +2712,49 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.94</v>
+        <v>2.12</v>
       </c>
       <c r="H20" t="n">
-        <v>3.84</v>
+        <v>3.33</v>
       </c>
       <c r="I20" t="n">
-        <v>3.56</v>
+        <v>2.72</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>4.27</v>
       </c>
       <c r="N20" t="n">
-        <v>1.63</v>
+        <v>1.68</v>
       </c>
       <c r="O20" t="n">
         <v>2.1</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>3.48</v>
       </c>
       <c r="R20" t="n">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
       <c r="S20" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="T20" t="n">
         <v>1.36</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="V20" t="n">
         <v>1.65</v>
@@ -2775,28 +2775,28 @@
         <v>3.22</v>
       </c>
       <c r="AB20" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="AC20" t="n">
-        <v>0</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="AD20" t="n">
-        <v>0</v>
+        <v>3.02</v>
       </c>
       <c r="AE20" t="n">
         <v>0</v>
       </c>
       <c r="AF20" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AG20" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AH20" t="n">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="AI20" t="n">
-        <v>0</v>
+        <v>2.39</v>
       </c>
     </row>
     <row r="21">
@@ -2818,100 +2818,100 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>FC Schaffhausen</t>
+          <t>Yverdon Sport</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Neuchâtel Xamax</t>
+          <t>Aarau</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.14</v>
+        <v>2.39</v>
       </c>
       <c r="H21" t="n">
-        <v>3.72</v>
+        <v>3.47</v>
       </c>
       <c r="I21" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K21" t="n">
+        <v>12</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="N21" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="O21" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S21" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="T21" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U21" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="V21" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W21" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="X21" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AA21" t="n">
         <v>3.12</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="O21" t="n">
-        <v>2.19</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>0</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S21" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="T21" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="U21" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="V21" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="W21" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="X21" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>3.02</v>
-      </c>
       <c r="AB21" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="AC21" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AD21" t="n">
-        <v>0</v>
+        <v>2.13</v>
       </c>
       <c r="AE21" t="n">
         <v>0</v>
       </c>
       <c r="AF21" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AG21" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AH21" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AI21" t="n">
-        <v>0</v>
+        <v>2.15</v>
       </c>
     </row>
     <row r="22">
@@ -2933,100 +2933,100 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Yverdon Sport</t>
+          <t>Vaduz</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Aarau</t>
+          <t>Stade Lausanne-Ouchy</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.31</v>
+        <v>2.43</v>
       </c>
       <c r="H22" t="n">
-        <v>3.82</v>
+        <v>3.31</v>
       </c>
       <c r="I22" t="n">
-        <v>2.76</v>
+        <v>2.34</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>17.25</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>4.35</v>
       </c>
       <c r="N22" t="n">
-        <v>1.45</v>
+        <v>1.65</v>
       </c>
       <c r="O22" t="n">
-        <v>2.49</v>
+        <v>2.15</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>3.54</v>
       </c>
       <c r="R22" t="n">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="S22" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T22" t="n">
-        <v>1.4</v>
+        <v>1.58</v>
       </c>
       <c r="U22" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="V22" t="n">
-        <v>1.55</v>
+        <v>1.38</v>
       </c>
       <c r="W22" t="n">
-        <v>2.12</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="X22" t="n">
         <v>1.71</v>
       </c>
       <c r="Y22" t="n">
-        <v>1.63</v>
+        <v>2.13</v>
       </c>
       <c r="Z22" t="n">
-        <v>1.49</v>
+        <v>1.7</v>
       </c>
       <c r="AA22" t="n">
-        <v>3.12</v>
+        <v>3.83</v>
       </c>
       <c r="AB22" t="n">
-        <v>0</v>
+        <v>2.07</v>
       </c>
       <c r="AC22" t="n">
-        <v>0</v>
+        <v>9.1</v>
       </c>
       <c r="AD22" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AE22" t="n">
         <v>0</v>
       </c>
       <c r="AF22" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AG22" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="AH22" t="n">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="AI22" t="n">
-        <v>0</v>
+        <v>2.39</v>
       </c>
     </row>
     <row r="23">
@@ -3048,100 +3048,100 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Bellinzona</t>
+          <t>FC Schaffhausen</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Thun</t>
+          <t>Neuchâtel Xamax</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>4.98</v>
+        <v>2.12</v>
       </c>
       <c r="H23" t="n">
-        <v>4.4</v>
+        <v>3.49</v>
       </c>
       <c r="I23" t="n">
-        <v>1.59</v>
+        <v>3.15</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>5.2</v>
       </c>
       <c r="N23" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="O23" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R23" t="n">
         <v>1.5</v>
       </c>
-      <c r="O23" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1.55</v>
-      </c>
       <c r="S23" t="n">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="T23" t="n">
-        <v>2.2</v>
+        <v>1.28</v>
       </c>
       <c r="U23" t="n">
-        <v>1.16</v>
+        <v>1.27</v>
       </c>
       <c r="V23" t="n">
-        <v>1.11</v>
+        <v>1.65</v>
       </c>
       <c r="W23" t="n">
-        <v>1.12</v>
+        <v>1.24</v>
       </c>
       <c r="X23" t="n">
-        <v>1.41</v>
+        <v>0.35</v>
       </c>
       <c r="Y23" t="n">
-        <v>1.41</v>
+        <v>1.62</v>
       </c>
       <c r="Z23" t="n">
-        <v>1.74</v>
+        <v>1.4</v>
       </c>
       <c r="AA23" t="n">
-        <v>3.15</v>
+        <v>3.02</v>
       </c>
       <c r="AB23" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AC23" t="n">
-        <v>0</v>
+        <v>7.3</v>
       </c>
       <c r="AD23" t="n">
-        <v>0</v>
+        <v>2.43</v>
       </c>
       <c r="AE23" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AF23" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AG23" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AH23" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="AI23" t="n">
-        <v>0</v>
+        <v>2.84</v>
       </c>
     </row>
     <row r="24">
@@ -3163,100 +3163,100 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Vaduz</t>
+          <t>Bellinzona</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Stade Lausanne-Ouchy</t>
+          <t>Thun</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.82</v>
+        <v>5.08</v>
       </c>
       <c r="H24" t="n">
-        <v>3.74</v>
+        <v>4.19</v>
       </c>
       <c r="I24" t="n">
-        <v>2.3</v>
+        <v>1.55</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="N24" t="n">
-        <v>1.63</v>
+        <v>1.52</v>
       </c>
       <c r="O24" t="n">
-        <v>2.1</v>
+        <v>2.45</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>3.72</v>
       </c>
       <c r="R24" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S24" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="T24" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U24" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="V24" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="W24" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="X24" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AG24" t="n">
         <v>1.53</v>
       </c>
-      <c r="S24" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="T24" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="U24" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="V24" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="W24" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="X24" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>3.83</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>0</v>
-      </c>
       <c r="AH24" t="n">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="AI24" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="25">
@@ -3278,100 +3278,100 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Pharco</t>
+          <t>Al Ahly</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Smouha SC</t>
+          <t>ENPPI</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.45</v>
+        <v>1.27</v>
       </c>
       <c r="H25" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="I25" t="n">
+        <v>8.050000000000001</v>
+      </c>
+      <c r="J25" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K25" t="n">
+        <v>14</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M25" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="N25" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Q25" t="n">
         <v>2.9</v>
       </c>
-      <c r="I25" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="J25" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="K25" t="n">
-        <v>6</v>
-      </c>
-      <c r="L25" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="M25" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="N25" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="O25" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="P25" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>2.34</v>
-      </c>
       <c r="R25" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="S25" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="T25" t="n">
-        <v>1.34</v>
+        <v>1.07</v>
       </c>
       <c r="U25" t="n">
-        <v>1.33</v>
+        <v>1.17</v>
       </c>
       <c r="V25" t="n">
-        <v>1.39</v>
+        <v>3.2</v>
       </c>
       <c r="W25" t="n">
-        <v>1.64</v>
+        <v>2.33</v>
       </c>
       <c r="X25" t="n">
-        <v>1.62</v>
+        <v>1.36</v>
       </c>
       <c r="Y25" t="n">
-        <v>1.22</v>
+        <v>1.7</v>
       </c>
       <c r="Z25" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AA25" t="n">
-        <v>2.43</v>
+        <v>2.83</v>
       </c>
       <c r="AB25" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AC25" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AD25" t="n">
-        <v>0</v>
+        <v>4.92</v>
       </c>
       <c r="AE25" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="AF25" t="n">
-        <v>1.51</v>
+        <v>1.48</v>
       </c>
       <c r="AG25" t="n">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="AH25" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="AI25" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="26">
@@ -3393,100 +3393,100 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Al Ahly</t>
+          <t>Pharco</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>ENPPI</t>
+          <t>Smouha SC</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.32</v>
+        <v>2.5</v>
       </c>
       <c r="H26" t="n">
-        <v>4.6</v>
+        <v>2.72</v>
       </c>
       <c r="I26" t="n">
-        <v>7.5</v>
+        <v>2.72</v>
       </c>
       <c r="J26" t="n">
-        <v>1.03</v>
+        <v>1.11</v>
       </c>
       <c r="K26" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="L26" t="n">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="M26" t="n">
-        <v>3.6</v>
+        <v>2.38</v>
       </c>
       <c r="N26" t="n">
-        <v>1.83</v>
+        <v>2.46</v>
       </c>
       <c r="O26" t="n">
-        <v>1.98</v>
+        <v>1.37</v>
       </c>
       <c r="P26" t="n">
-        <v>1.36</v>
+        <v>1.59</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.9</v>
+        <v>2.34</v>
       </c>
       <c r="R26" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="S26" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="T26" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="U26" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="V26" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="W26" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="X26" t="n">
         <v>1.62</v>
       </c>
-      <c r="T26" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="U26" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="V26" t="n">
+      <c r="Y26" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AI26" t="n">
         <v>3.2</v>
-      </c>
-      <c r="W26" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="X26" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>2.83</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -3517,13 +3517,13 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>5</v>
+        <v>5.31</v>
       </c>
       <c r="H27" t="n">
-        <v>4.28</v>
+        <v>4.66</v>
       </c>
       <c r="I27" t="n">
-        <v>1.61</v>
+        <v>1.49</v>
       </c>
       <c r="J27" t="n">
         <v>1.02</v>
@@ -3538,10 +3538,10 @@
         <v>4.5</v>
       </c>
       <c r="N27" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="O27" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="P27" t="n">
         <v>1.29</v>
@@ -3632,10 +3632,10 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.37</v>
+        <v>2.41</v>
       </c>
       <c r="H28" t="n">
-        <v>2.95</v>
+        <v>2.9</v>
       </c>
       <c r="I28" t="n">
         <v>2.95</v>
@@ -3747,13 +3747,13 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="H29" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I29" t="n">
-        <v>1.98</v>
+        <v>1.91</v>
       </c>
       <c r="J29" t="n">
         <v>1.07</v>
@@ -3862,13 +3862,13 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.58</v>
+        <v>1.53</v>
       </c>
       <c r="H30" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="I30" t="n">
-        <v>5.25</v>
+        <v>5.6</v>
       </c>
       <c r="J30" t="n">
         <v>1.06</v>
@@ -3883,10 +3883,10 @@
         <v>3.5</v>
       </c>
       <c r="N30" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="O30" t="n">
-        <v>1.81</v>
+        <v>1.72</v>
       </c>
       <c r="P30" t="n">
         <v>1.36</v>
@@ -3952,7 +3952,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Brazil Serie B</t>
+          <t>South America Copa Libertadores</t>
         </is>
       </c>
       <c r="B31" s="2" t="n">
@@ -3960,108 +3960,108 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>21:00:00</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Botafogo SP</t>
+          <t>Independiente Medellín</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Mirassol</t>
+          <t>Nacional</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.38</v>
+        <v>1.89</v>
       </c>
       <c r="H31" t="n">
-        <v>2.88</v>
+        <v>3.3</v>
       </c>
       <c r="I31" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J31" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="K31" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M31" t="n">
         <v>3</v>
       </c>
-      <c r="J31" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="K31" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="L31" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="M31" t="n">
-        <v>2.55</v>
-      </c>
       <c r="N31" t="n">
-        <v>2.4</v>
+        <v>2.03</v>
       </c>
       <c r="O31" t="n">
-        <v>1.53</v>
+        <v>1.65</v>
       </c>
       <c r="P31" t="n">
-        <v>1.52</v>
+        <v>1.4</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.39</v>
+        <v>2.75</v>
       </c>
       <c r="R31" t="n">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="S31" t="n">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="T31" t="n">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="U31" t="n">
         <v>1.3</v>
       </c>
       <c r="V31" t="n">
-        <v>1.55</v>
+        <v>1.8</v>
       </c>
       <c r="W31" t="n">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="X31" t="n">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="Y31" t="n">
-        <v>1.58</v>
+        <v>1.49</v>
       </c>
       <c r="Z31" t="n">
-        <v>1.3</v>
+        <v>1.69</v>
       </c>
       <c r="AA31" t="n">
-        <v>2.88</v>
+        <v>3.18</v>
       </c>
       <c r="AB31" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AC31" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD31" t="n">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="AE31" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AF31" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AG31" t="n">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="AH31" t="n">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="AI31" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="32">
@@ -4083,100 +4083,100 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Bolívar</t>
+          <t>SD Aucas</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Racing Club</t>
         </is>
       </c>
       <c r="G32" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="H32" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="I32" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="J32" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="K32" t="n">
+        <v>8</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M32" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="N32" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="P32" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S32" t="n">
+        <v>2</v>
+      </c>
+      <c r="T32" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U32" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="V32" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W32" t="n">
+        <v>1</v>
+      </c>
+      <c r="X32" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="Y32" t="n">
         <v>1.53</v>
       </c>
-      <c r="H32" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>5.75</v>
-      </c>
-      <c r="J32" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="K32" t="n">
-        <v>9</v>
-      </c>
-      <c r="L32" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="M32" t="n">
+      <c r="Z32" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AI32" t="n">
         <v>3.4</v>
-      </c>
-      <c r="N32" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="O32" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="P32" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>3</v>
-      </c>
-      <c r="R32" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="S32" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="T32" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="U32" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="V32" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W32" t="n">
-        <v>2</v>
-      </c>
-      <c r="X32" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="Z32" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="AA32" t="n">
-        <v>3</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>3.56</v>
-      </c>
-      <c r="AE32" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AH32" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AI32" t="n">
-        <v>3.25</v>
       </c>
     </row>
     <row r="33">
@@ -4198,106 +4198,106 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>SD Aucas</t>
+          <t>Bolívar</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Racing Club</t>
+          <t>Barcelona</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.5</v>
+        <v>1.49</v>
       </c>
       <c r="H33" t="n">
+        <v>4</v>
+      </c>
+      <c r="I33" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K33" t="n">
+        <v>9</v>
+      </c>
+      <c r="L33" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M33" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="N33" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="P33" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>3</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S33" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="T33" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="U33" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="V33" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W33" t="n">
+        <v>2</v>
+      </c>
+      <c r="X33" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AI33" t="n">
         <v>3.25</v>
-      </c>
-      <c r="I33" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="K33" t="n">
-        <v>8</v>
-      </c>
-      <c r="L33" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="M33" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="N33" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="O33" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="P33" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="R33" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="S33" t="n">
-        <v>2</v>
-      </c>
-      <c r="T33" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="U33" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="V33" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="W33" t="n">
-        <v>1</v>
-      </c>
-      <c r="X33" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="Z33" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="AH33" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="AI33" t="n">
-        <v>3.4</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>South America Copa Libertadores</t>
+          <t>Brazil Serie B</t>
         </is>
       </c>
       <c r="B34" s="2" t="n">
@@ -4305,107 +4305,337 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>21:30:00</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Independiente Medellín</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Nacional</t>
+          <t>Tombense</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.93</v>
+        <v>2.16</v>
       </c>
       <c r="H34" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="I34" t="n">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="J34" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="K34" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="L34" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="M34" t="n">
-        <v>3</v>
+        <v>2.62</v>
       </c>
       <c r="N34" t="n">
-        <v>2.13</v>
+        <v>2.29</v>
       </c>
       <c r="O34" t="n">
-        <v>1.71</v>
+        <v>1.51</v>
       </c>
       <c r="P34" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="R34" t="n">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="S34" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="T34" t="n">
-        <v>1.22</v>
+        <v>1.3</v>
       </c>
       <c r="U34" t="n">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="V34" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="W34" t="n">
-        <v>1.71</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>2.33</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>1.49</v>
       </c>
       <c r="Z34" t="n">
-        <v>1.69</v>
+        <v>1.56</v>
       </c>
       <c r="AA34" t="n">
-        <v>3.18</v>
+        <v>3.05</v>
       </c>
       <c r="AB34" t="n">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="AC34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Brazil Serie B</t>
+        </is>
+      </c>
+      <c r="B35" s="2" t="n">
+        <v>45069</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
         <v>8</v>
       </c>
-      <c r="AD34" t="n">
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Novorizontino</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Avaí</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H35" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="I35" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="J35" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="K35" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="L35" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M35" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="N35" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="P35" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="R35" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S35" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="T35" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="U35" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="V35" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="W35" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X35" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>South America Copa Libertadores</t>
+        </is>
+      </c>
+      <c r="B36" s="2" t="n">
+        <v>45069</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>23:00:00</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>4</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Alianza Lima</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Libertad</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
         <v>2.42</v>
       </c>
-      <c r="AE34" t="n">
+      <c r="H36" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="I36" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="K36" t="n">
+        <v>10</v>
+      </c>
+      <c r="L36" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M36" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="N36" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="O36" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="P36" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R36" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S36" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="T36" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="U36" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="V36" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="W36" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X36" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y36" t="n">
         <v>1.27</v>
       </c>
-      <c r="AF34" t="n">
+      <c r="Z36" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AF36" t="n">
         <v>1.5</v>
       </c>
-      <c r="AG34" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="AH34" t="n">
+      <c r="AG36" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AH36" t="n">
         <v>2.45</v>
       </c>
-      <c r="AI34" t="n">
+      <c r="AI36" t="n">
         <v>3.4</v>
       </c>
     </row>

--- a/Jogos_do_Dia/2023-05-23_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-05-23_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -642,13 +642,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>5.7</v>
+        <v>5.75</v>
       </c>
       <c r="H2" t="n">
         <v>3.8</v>
       </c>
       <c r="I2" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="J2" t="n">
         <v>1.04</v>
@@ -663,10 +663,10 @@
         <v>3.1</v>
       </c>
       <c r="N2" t="n">
-        <v>1.95</v>
+        <v>2.03</v>
       </c>
       <c r="O2" t="n">
-        <v>1.7</v>
+        <v>1.83</v>
       </c>
       <c r="P2" t="n">
         <v>1.4</v>
@@ -690,10 +690,10 @@
         <v>1.12</v>
       </c>
       <c r="W2" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="X2" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="Y2" t="n">
         <v>2.04</v>
@@ -748,100 +748,100 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Changchun Yatai</t>
+          <t>Chengdu Better City FC</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Qingdao Jonoon</t>
+          <t>Shanghai Shenhua</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="H3" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="I3" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="J3" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K3" t="n">
-        <v>10.5</v>
+        <v>8.5</v>
       </c>
       <c r="L3" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M3" t="n">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="N3" t="n">
-        <v>1.84</v>
+        <v>2</v>
       </c>
       <c r="O3" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="P3" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.9</v>
+        <v>2.85</v>
       </c>
       <c r="R3" t="n">
-        <v>1.8</v>
+        <v>1.86</v>
       </c>
       <c r="S3" t="n">
-        <v>1.96</v>
+        <v>1.9</v>
       </c>
       <c r="T3" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="U3" t="n">
         <v>1.28</v>
       </c>
       <c r="V3" t="n">
-        <v>1.94</v>
+        <v>1.9</v>
       </c>
       <c r="W3" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="X3" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB3" t="n">
         <v>1.33</v>
       </c>
-      <c r="X3" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>3</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>1.63</v>
-      </c>
       <c r="AC3" t="n">
-        <v>8.800000000000001</v>
+        <v>6.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>2.73</v>
+        <v>3.85</v>
       </c>
       <c r="AE3" t="n">
-        <v>1.39</v>
+        <v>1.34</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.72</v>
+        <v>1.64</v>
       </c>
       <c r="AG3" t="n">
-        <v>2.19</v>
+        <v>2.11</v>
       </c>
       <c r="AH3" t="n">
-        <v>2.93</v>
+        <v>2.8</v>
       </c>
       <c r="AI3" t="n">
-        <v>4.15</v>
+        <v>3.86</v>
       </c>
     </row>
     <row r="4">
@@ -863,100 +863,100 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Beijing Guoan</t>
+          <t>Changchun Yatai</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Shijiazhuang Ever Bright</t>
+          <t>Qingdao Jonoon</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.45</v>
+        <v>1.8</v>
       </c>
       <c r="H4" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I4" t="n">
         <v>4</v>
       </c>
-      <c r="I4" t="n">
-        <v>6.2</v>
-      </c>
       <c r="J4" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K4" t="n">
-        <v>8.6</v>
+        <v>10.5</v>
       </c>
       <c r="L4" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="M4" t="n">
-        <v>3.08</v>
+        <v>3.4</v>
       </c>
       <c r="N4" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="O4" t="n">
-        <v>1.7</v>
+        <v>1.93</v>
       </c>
       <c r="P4" t="n">
-        <v>1.42</v>
+        <v>1.37</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="R4" t="n">
-        <v>2.14</v>
+        <v>1.8</v>
       </c>
       <c r="S4" t="n">
-        <v>1.66</v>
+        <v>1.96</v>
       </c>
       <c r="T4" t="n">
-        <v>1.1</v>
+        <v>1.23</v>
       </c>
       <c r="U4" t="n">
-        <v>1.23</v>
+        <v>1.28</v>
       </c>
       <c r="V4" t="n">
-        <v>2.57</v>
+        <v>1.94</v>
       </c>
       <c r="W4" t="n">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="X4" t="n">
-        <v>1.25</v>
+        <v>0.2</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.56</v>
+        <v>1.59</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.93</v>
+        <v>1.41</v>
       </c>
       <c r="AA4" t="n">
-        <v>2.49</v>
+        <v>3</v>
       </c>
       <c r="AB4" t="n">
-        <v>1.83</v>
+        <v>1.63</v>
       </c>
       <c r="AC4" t="n">
-        <v>5.75</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD4" t="n">
-        <v>2.35</v>
+        <v>2.73</v>
       </c>
       <c r="AE4" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="AG4" t="n">
-        <v>2.27</v>
+        <v>2.19</v>
       </c>
       <c r="AH4" t="n">
-        <v>3.1</v>
+        <v>2.93</v>
       </c>
       <c r="AI4" t="n">
-        <v>4.1</v>
+        <v>4.15</v>
       </c>
     </row>
     <row r="5">
@@ -978,100 +978,100 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Chengdu Better City FC</t>
+          <t>Beijing Guoan</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Shanghai Shenhua</t>
+          <t>Shijiazhuang Ever Bright</t>
         </is>
       </c>
       <c r="G5" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+      <c r="I5" t="n">
+        <v>6</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K5" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="N5" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="O5" t="n">
         <v>1.83</v>
       </c>
-      <c r="H5" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="I5" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="K5" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="M5" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="N5" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.74</v>
-      </c>
       <c r="P5" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.85</v>
+        <v>2.75</v>
       </c>
       <c r="R5" t="n">
-        <v>1.86</v>
+        <v>2.14</v>
       </c>
       <c r="S5" t="n">
-        <v>1.9</v>
+        <v>1.66</v>
       </c>
       <c r="T5" t="n">
-        <v>1.25</v>
+        <v>1.1</v>
       </c>
       <c r="U5" t="n">
-        <v>1.28</v>
+        <v>1.23</v>
       </c>
       <c r="V5" t="n">
-        <v>1.9</v>
+        <v>2.57</v>
       </c>
       <c r="W5" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="X5" t="n">
-        <v>2.33</v>
+        <v>1</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.88</v>
+        <v>1.56</v>
       </c>
       <c r="Z5" t="n">
-        <v>1.32</v>
+        <v>0.93</v>
       </c>
       <c r="AA5" t="n">
-        <v>3.2</v>
+        <v>2.49</v>
       </c>
       <c r="AB5" t="n">
-        <v>1.33</v>
+        <v>1.83</v>
       </c>
       <c r="AC5" t="n">
-        <v>6.5</v>
+        <v>5.75</v>
       </c>
       <c r="AD5" t="n">
-        <v>3.85</v>
+        <v>2.35</v>
       </c>
       <c r="AE5" t="n">
-        <v>1.34</v>
+        <v>1.38</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AG5" t="n">
-        <v>2.11</v>
+        <v>2.27</v>
       </c>
       <c r="AH5" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="AI5" t="n">
-        <v>3.86</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="6">
@@ -1102,13 +1102,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3.02</v>
+        <v>2.84</v>
       </c>
       <c r="H6" t="n">
-        <v>2.89</v>
+        <v>2.9</v>
       </c>
       <c r="I6" t="n">
-        <v>2.52</v>
+        <v>2.45</v>
       </c>
       <c r="J6" t="n">
         <v>1.08</v>
@@ -1123,7 +1123,7 @@
         <v>2.8</v>
       </c>
       <c r="N6" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="O6" t="n">
         <v>1.57</v>
@@ -1323,100 +1323,100 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Dukla Banská Bystrica</t>
+          <t>Podbrezová</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Žilina</t>
+          <t>Ružomberok</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.1</v>
+        <v>2.62</v>
       </c>
       <c r="H8" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="I8" t="n">
-        <v>2.95</v>
+        <v>2.5</v>
       </c>
       <c r="J8" t="n">
         <v>1.02</v>
       </c>
       <c r="K8" t="n">
-        <v>17</v>
+        <v>8.9</v>
       </c>
       <c r="L8" t="n">
-        <v>1.14</v>
+        <v>1.24</v>
       </c>
       <c r="M8" t="n">
-        <v>4.7</v>
+        <v>3.48</v>
       </c>
       <c r="N8" t="n">
-        <v>1.53</v>
+        <v>1.8</v>
       </c>
       <c r="O8" t="n">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="P8" t="n">
-        <v>1.27</v>
+        <v>1.4</v>
       </c>
       <c r="Q8" t="n">
-        <v>3.5</v>
+        <v>2.82</v>
       </c>
       <c r="R8" t="n">
-        <v>1.45</v>
+        <v>1.63</v>
       </c>
       <c r="S8" t="n">
-        <v>2.55</v>
+        <v>2.14</v>
       </c>
       <c r="T8" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="U8" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="V8" t="n">
-        <v>1.66</v>
+        <v>1.44</v>
       </c>
       <c r="W8" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="X8" t="n">
-        <v>1.22</v>
+        <v>1.47</v>
       </c>
       <c r="Y8" t="n">
         <v>1.82</v>
       </c>
       <c r="Z8" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="AA8" t="n">
-        <v>3.36</v>
+        <v>3.39</v>
       </c>
       <c r="AB8" t="n">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="AC8" t="n">
-        <v>9.300000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="AD8" t="n">
-        <v>2.17</v>
+        <v>2.14</v>
       </c>
       <c r="AE8" t="n">
-        <v>1.16</v>
+        <v>1.19</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="AG8" t="n">
-        <v>1.53</v>
+        <v>1.64</v>
       </c>
       <c r="AH8" t="n">
-        <v>1.88</v>
+        <v>2.01</v>
       </c>
       <c r="AI8" t="n">
-        <v>2.3</v>
+        <v>2.57</v>
       </c>
     </row>
     <row r="9">
@@ -1438,100 +1438,100 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Podbrezová</t>
+          <t>Dukla Banská Bystrica</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Ružomberok</t>
+          <t>Žilina</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.78</v>
+        <v>2.1</v>
       </c>
       <c r="H9" t="n">
-        <v>3.26</v>
+        <v>3.7</v>
       </c>
       <c r="I9" t="n">
-        <v>2.36</v>
+        <v>2.95</v>
       </c>
       <c r="J9" t="n">
         <v>1.02</v>
       </c>
       <c r="K9" t="n">
-        <v>8.9</v>
+        <v>17</v>
       </c>
       <c r="L9" t="n">
-        <v>1.24</v>
+        <v>1.14</v>
       </c>
       <c r="M9" t="n">
-        <v>3.48</v>
+        <v>4.7</v>
       </c>
       <c r="N9" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="O9" t="n">
-        <v>1.89</v>
+        <v>2.41</v>
       </c>
       <c r="P9" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.82</v>
+        <v>3.5</v>
       </c>
       <c r="R9" t="n">
-        <v>1.63</v>
+        <v>1.45</v>
       </c>
       <c r="S9" t="n">
-        <v>2.14</v>
+        <v>2.55</v>
       </c>
       <c r="T9" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="U9" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="V9" t="n">
-        <v>1.44</v>
+        <v>1.66</v>
       </c>
       <c r="W9" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="X9" t="n">
-        <v>1.47</v>
+        <v>1.22</v>
       </c>
       <c r="Y9" t="n">
         <v>1.82</v>
       </c>
       <c r="Z9" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="AA9" t="n">
-        <v>3.39</v>
+        <v>3.36</v>
       </c>
       <c r="AB9" t="n">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="AC9" t="n">
-        <v>8.9</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AD9" t="n">
-        <v>2.14</v>
+        <v>2.17</v>
       </c>
       <c r="AE9" t="n">
-        <v>1.19</v>
+        <v>1.16</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AG9" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AH9" t="n">
-        <v>2.01</v>
+        <v>1.88</v>
       </c>
       <c r="AI9" t="n">
-        <v>2.57</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="10">
@@ -1562,13 +1562,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.54</v>
+        <v>2.63</v>
       </c>
       <c r="H10" t="n">
-        <v>2.84</v>
+        <v>2.9</v>
       </c>
       <c r="I10" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="J10" t="n">
         <v>1.09</v>
@@ -1583,10 +1583,10 @@
         <v>2.63</v>
       </c>
       <c r="N10" t="n">
-        <v>2.22</v>
+        <v>2.41</v>
       </c>
       <c r="O10" t="n">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="P10" t="n">
         <v>1.51</v>
@@ -1680,10 +1680,10 @@
         <v>1.15</v>
       </c>
       <c r="H11" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="I11" t="n">
-        <v>13.7</v>
+        <v>10.66</v>
       </c>
       <c r="J11" t="n">
         <v>1.03</v>
@@ -1698,10 +1698,10 @@
         <v>3.97</v>
       </c>
       <c r="N11" t="n">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="O11" t="n">
-        <v>1.94</v>
+        <v>2.09</v>
       </c>
       <c r="P11" t="n">
         <v>1.31</v>
@@ -1710,10 +1710,10 @@
         <v>3.03</v>
       </c>
       <c r="R11" t="n">
-        <v>2.65</v>
+        <v>2.5</v>
       </c>
       <c r="S11" t="n">
-        <v>1.42</v>
+        <v>1.47</v>
       </c>
       <c r="T11" t="n">
         <v>1.03</v>
@@ -1792,13 +1792,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.94</v>
+        <v>1.76</v>
       </c>
       <c r="H12" t="n">
-        <v>3.24</v>
+        <v>3.4</v>
       </c>
       <c r="I12" t="n">
-        <v>3.96</v>
+        <v>4.12</v>
       </c>
       <c r="J12" t="n">
         <v>1.04</v>
@@ -1816,7 +1816,7 @@
         <v>1.95</v>
       </c>
       <c r="O12" t="n">
-        <v>1.83</v>
+        <v>1.76</v>
       </c>
       <c r="P12" t="n">
         <v>1.4</v>
@@ -1907,13 +1907,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="H13" t="n">
-        <v>3.98</v>
+        <v>4.5</v>
       </c>
       <c r="I13" t="n">
-        <v>5.48</v>
+        <v>5.1</v>
       </c>
       <c r="J13" t="n">
         <v>1.02</v>
@@ -1928,10 +1928,10 @@
         <v>4.71</v>
       </c>
       <c r="N13" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="O13" t="n">
-        <v>2.25</v>
+        <v>2.19</v>
       </c>
       <c r="P13" t="n">
         <v>1.26</v>
@@ -1979,7 +1979,7 @@
         <v>3.62</v>
       </c>
       <c r="AE13" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="AF13" t="n">
         <v>1.22</v>
@@ -2022,13 +2022,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>4.5</v>
+        <v>5.29</v>
       </c>
       <c r="H14" t="n">
-        <v>3.62</v>
+        <v>4.2</v>
       </c>
       <c r="I14" t="n">
-        <v>1.49</v>
+        <v>1.52</v>
       </c>
       <c r="J14" t="n">
         <v>1.03</v>
@@ -2043,10 +2043,10 @@
         <v>4.25</v>
       </c>
       <c r="N14" t="n">
-        <v>1.61</v>
+        <v>1.66</v>
       </c>
       <c r="O14" t="n">
-        <v>2.05</v>
+        <v>2.09</v>
       </c>
       <c r="P14" t="n">
         <v>1.32</v>
@@ -2094,7 +2094,7 @@
         <v>1.31</v>
       </c>
       <c r="AE14" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="AF14" t="n">
         <v>1.23</v>
@@ -2137,13 +2137,13 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3.16</v>
+        <v>3.44</v>
       </c>
       <c r="H15" t="n">
-        <v>3.11</v>
+        <v>3.4</v>
       </c>
       <c r="I15" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="J15" t="n">
         <v>1.01</v>
@@ -2158,10 +2158,10 @@
         <v>3.8</v>
       </c>
       <c r="N15" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="O15" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="P15" t="n">
         <v>1.35</v>
@@ -2252,13 +2252,13 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.02</v>
+        <v>1.77</v>
       </c>
       <c r="H16" t="n">
-        <v>3.4</v>
+        <v>3.65</v>
       </c>
       <c r="I16" t="n">
-        <v>3.25</v>
+        <v>3.91</v>
       </c>
       <c r="J16" t="n">
         <v>1.04</v>
@@ -2273,10 +2273,10 @@
         <v>3.8</v>
       </c>
       <c r="N16" t="n">
-        <v>1.82</v>
+        <v>1.7</v>
       </c>
       <c r="O16" t="n">
-        <v>1.82</v>
+        <v>2.03</v>
       </c>
       <c r="P16" t="n">
         <v>1.33</v>
@@ -2367,13 +2367,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="H17" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="I17" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="J17" t="n">
         <v>1.03</v>
@@ -2388,10 +2388,10 @@
         <v>4</v>
       </c>
       <c r="N17" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="O17" t="n">
-        <v>1.98</v>
+        <v>2.19</v>
       </c>
       <c r="P17" t="n">
         <v>1.32</v>
@@ -2473,100 +2473,100 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Real Sociedad</t>
+          <t>Celta de Vigo</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Almería</t>
+          <t>Girona FC</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.32</v>
+        <v>1.94</v>
       </c>
       <c r="H18" t="n">
-        <v>5.37</v>
+        <v>3.6</v>
       </c>
       <c r="I18" t="n">
-        <v>9.710000000000001</v>
+        <v>3.82</v>
       </c>
       <c r="J18" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K18" t="n">
-        <v>14.5</v>
+        <v>12</v>
       </c>
       <c r="L18" t="n">
-        <v>1.24</v>
+        <v>1.3</v>
       </c>
       <c r="M18" t="n">
-        <v>4.13</v>
+        <v>3.6</v>
       </c>
       <c r="N18" t="n">
-        <v>1.67</v>
+        <v>1.78</v>
       </c>
       <c r="O18" t="n">
-        <v>2.1</v>
+        <v>1.97</v>
       </c>
       <c r="P18" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>3</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S18" t="n">
+        <v>2</v>
+      </c>
+      <c r="T18" t="n">
         <v>1.33</v>
       </c>
-      <c r="Q18" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S18" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="T18" t="n">
-        <v>1.15</v>
-      </c>
       <c r="U18" t="n">
-        <v>1.24</v>
+        <v>1.3</v>
       </c>
       <c r="V18" t="n">
-        <v>2.43</v>
+        <v>1.66</v>
       </c>
       <c r="W18" t="n">
-        <v>1.88</v>
+        <v>1.35</v>
       </c>
       <c r="X18" t="n">
-        <v>0.41</v>
+        <v>0.88</v>
       </c>
       <c r="Y18" t="n">
-        <v>1.54</v>
+        <v>1.72</v>
       </c>
       <c r="Z18" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="AA18" t="n">
-        <v>2.81</v>
+        <v>3</v>
       </c>
       <c r="AB18" t="n">
         <v>1.58</v>
       </c>
       <c r="AC18" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="AE18" t="n">
-        <v>1.34</v>
+        <v>1.5</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.62</v>
+        <v>1.88</v>
       </c>
       <c r="AG18" t="n">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="AH18" t="n">
-        <v>2.55</v>
+        <v>3.2</v>
       </c>
       <c r="AI18" t="n">
-        <v>3.4</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="19">
@@ -2588,100 +2588,100 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Celta de Vigo</t>
+          <t>Real Sociedad</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Girona FC</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.92</v>
+        <v>1.47</v>
       </c>
       <c r="H19" t="n">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="I19" t="n">
-        <v>4.08</v>
+        <v>6.56</v>
       </c>
       <c r="J19" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K19" t="n">
-        <v>12</v>
+        <v>14.5</v>
       </c>
       <c r="L19" t="n">
-        <v>1.3</v>
+        <v>1.24</v>
       </c>
       <c r="M19" t="n">
-        <v>3.6</v>
+        <v>4.13</v>
       </c>
       <c r="N19" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="O19" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R19" t="n">
         <v>1.8</v>
       </c>
-      <c r="O19" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="P19" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>3</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.75</v>
-      </c>
       <c r="S19" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T19" t="n">
-        <v>1.33</v>
+        <v>1.15</v>
       </c>
       <c r="U19" t="n">
-        <v>1.3</v>
+        <v>1.24</v>
       </c>
       <c r="V19" t="n">
-        <v>1.66</v>
+        <v>2.43</v>
       </c>
       <c r="W19" t="n">
-        <v>1.35</v>
+        <v>1.88</v>
       </c>
       <c r="X19" t="n">
-        <v>0.88</v>
+        <v>0.41</v>
       </c>
       <c r="Y19" t="n">
-        <v>1.72</v>
+        <v>1.54</v>
       </c>
       <c r="Z19" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="AA19" t="n">
-        <v>3</v>
+        <v>2.81</v>
       </c>
       <c r="AB19" t="n">
         <v>1.58</v>
       </c>
       <c r="AC19" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AD19" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="AE19" t="n">
-        <v>1.5</v>
+        <v>1.34</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.88</v>
+        <v>1.62</v>
       </c>
       <c r="AG19" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AH19" t="n">
-        <v>3.2</v>
+        <v>2.55</v>
       </c>
       <c r="AI19" t="n">
-        <v>4.4</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="20">
@@ -2703,100 +2703,100 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Lausanne Sport</t>
+          <t>Yverdon Sport</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Wil</t>
+          <t>Aarau</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.12</v>
+        <v>2.26</v>
       </c>
       <c r="H20" t="n">
-        <v>3.33</v>
+        <v>3.65</v>
       </c>
       <c r="I20" t="n">
-        <v>2.72</v>
+        <v>2.64</v>
       </c>
       <c r="J20" t="n">
         <v>1.02</v>
       </c>
       <c r="K20" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="L20" t="n">
-        <v>1.18</v>
+        <v>1.12</v>
       </c>
       <c r="M20" t="n">
-        <v>4.27</v>
+        <v>5.2</v>
       </c>
       <c r="N20" t="n">
-        <v>1.68</v>
+        <v>1.47</v>
       </c>
       <c r="O20" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="P20" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="Q20" t="n">
-        <v>3.48</v>
+        <v>3.5</v>
       </c>
       <c r="R20" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="S20" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="T20" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="U20" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="V20" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="W20" t="n">
         <v>2.12</v>
       </c>
       <c r="X20" t="n">
-        <v>1.24</v>
+        <v>1.71</v>
       </c>
       <c r="Y20" t="n">
-        <v>1.74</v>
+        <v>1.63</v>
       </c>
       <c r="Z20" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="AA20" t="n">
-        <v>3.22</v>
+        <v>3.12</v>
       </c>
       <c r="AB20" t="n">
-        <v>1.49</v>
+        <v>2.07</v>
       </c>
       <c r="AC20" t="n">
-        <v>9.699999999999999</v>
+        <v>7.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>3.02</v>
+        <v>2.07</v>
       </c>
       <c r="AE20" t="n">
         <v>0</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="AG20" t="n">
-        <v>1.57</v>
+        <v>1.42</v>
       </c>
       <c r="AH20" t="n">
-        <v>1.93</v>
+        <v>1.73</v>
       </c>
       <c r="AI20" t="n">
-        <v>2.39</v>
+        <v>2.15</v>
       </c>
     </row>
     <row r="21">
@@ -2818,100 +2818,100 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Yverdon Sport</t>
+          <t>Vaduz</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Aarau</t>
+          <t>Stade Lausanne-Ouchy</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.39</v>
+        <v>2.91</v>
       </c>
       <c r="H21" t="n">
-        <v>3.47</v>
+        <v>3.7</v>
       </c>
       <c r="I21" t="n">
-        <v>2.71</v>
+        <v>2.08</v>
       </c>
       <c r="J21" t="n">
         <v>1.02</v>
       </c>
       <c r="K21" t="n">
-        <v>12</v>
+        <v>17.25</v>
       </c>
       <c r="L21" t="n">
-        <v>1.12</v>
+        <v>1.18</v>
       </c>
       <c r="M21" t="n">
-        <v>5.2</v>
+        <v>4.35</v>
       </c>
       <c r="N21" t="n">
-        <v>1.47</v>
+        <v>1.51</v>
       </c>
       <c r="O21" t="n">
-        <v>2.55</v>
+        <v>2.39</v>
       </c>
       <c r="P21" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S21" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="T21" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="U21" t="n">
         <v>1.25</v>
       </c>
-      <c r="Q21" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S21" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="T21" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="U21" t="n">
-        <v>1.2</v>
-      </c>
       <c r="V21" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="W21" t="n">
-        <v>2.12</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="X21" t="n">
         <v>1.71</v>
       </c>
       <c r="Y21" t="n">
-        <v>1.63</v>
+        <v>2.13</v>
       </c>
       <c r="Z21" t="n">
-        <v>1.49</v>
+        <v>1.7</v>
       </c>
       <c r="AA21" t="n">
-        <v>3.12</v>
+        <v>3.83</v>
       </c>
       <c r="AB21" t="n">
-        <v>1.98</v>
+        <v>2.23</v>
       </c>
       <c r="AC21" t="n">
-        <v>7.6</v>
+        <v>9</v>
       </c>
       <c r="AD21" t="n">
-        <v>2.13</v>
+        <v>1.95</v>
       </c>
       <c r="AE21" t="n">
         <v>0</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="AG21" t="n">
-        <v>1.42</v>
+        <v>1.91</v>
       </c>
       <c r="AH21" t="n">
-        <v>1.73</v>
+        <v>1.93</v>
       </c>
       <c r="AI21" t="n">
-        <v>2.15</v>
+        <v>2.39</v>
       </c>
     </row>
     <row r="22">
@@ -2933,46 +2933,46 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Vaduz</t>
+          <t>FC Schaffhausen</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Stade Lausanne-Ouchy</t>
+          <t>Neuchâtel Xamax</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.43</v>
+        <v>2.15</v>
       </c>
       <c r="H22" t="n">
-        <v>3.31</v>
+        <v>3.75</v>
       </c>
       <c r="I22" t="n">
-        <v>2.34</v>
+        <v>2.75</v>
       </c>
       <c r="J22" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K22" t="n">
-        <v>17.25</v>
+        <v>12</v>
       </c>
       <c r="L22" t="n">
-        <v>1.18</v>
+        <v>1.12</v>
       </c>
       <c r="M22" t="n">
-        <v>4.35</v>
+        <v>5.2</v>
       </c>
       <c r="N22" t="n">
-        <v>1.65</v>
+        <v>1.47</v>
       </c>
       <c r="O22" t="n">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="P22" t="n">
         <v>1.27</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.54</v>
+        <v>3.4</v>
       </c>
       <c r="R22" t="n">
         <v>1.5</v>
@@ -2981,52 +2981,52 @@
         <v>2.5</v>
       </c>
       <c r="T22" t="n">
-        <v>1.58</v>
+        <v>1.28</v>
       </c>
       <c r="U22" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="V22" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="W22" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AF22" t="n">
         <v>1.38</v>
       </c>
-      <c r="W22" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="X22" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>3.83</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>1.29</v>
-      </c>
       <c r="AG22" t="n">
-        <v>1.58</v>
+        <v>2.25</v>
       </c>
       <c r="AH22" t="n">
-        <v>1.93</v>
+        <v>2.12</v>
       </c>
       <c r="AI22" t="n">
-        <v>2.39</v>
+        <v>2.84</v>
       </c>
     </row>
     <row r="23">
@@ -3048,100 +3048,100 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>FC Schaffhausen</t>
+          <t>Lausanne Sport</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Neuchâtel Xamax</t>
+          <t>Wil</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.12</v>
+        <v>1.86</v>
       </c>
       <c r="H23" t="n">
-        <v>3.49</v>
+        <v>3.8</v>
       </c>
       <c r="I23" t="n">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="J23" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K23" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="L23" t="n">
-        <v>1.12</v>
+        <v>1.18</v>
       </c>
       <c r="M23" t="n">
-        <v>5.2</v>
+        <v>4.27</v>
       </c>
       <c r="N23" t="n">
-        <v>1.6</v>
+        <v>1.54</v>
       </c>
       <c r="O23" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S23" t="n">
         <v>2.25</v>
       </c>
-      <c r="P23" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S23" t="n">
-        <v>2.5</v>
-      </c>
       <c r="T23" t="n">
-        <v>1.28</v>
+        <v>1.36</v>
       </c>
       <c r="U23" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="V23" t="n">
         <v>1.65</v>
       </c>
       <c r="W23" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="X23" t="n">
         <v>1.24</v>
       </c>
-      <c r="X23" t="n">
-        <v>0.35</v>
-      </c>
       <c r="Y23" t="n">
-        <v>1.62</v>
+        <v>1.74</v>
       </c>
       <c r="Z23" t="n">
-        <v>1.4</v>
+        <v>1.48</v>
       </c>
       <c r="AA23" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AD23" t="n">
         <v>3.02</v>
       </c>
-      <c r="AB23" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>2.43</v>
-      </c>
       <c r="AE23" t="n">
-        <v>1.19</v>
+        <v>0</v>
       </c>
       <c r="AF23" t="n">
-        <v>1.38</v>
+        <v>1.28</v>
       </c>
       <c r="AG23" t="n">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="AH23" t="n">
-        <v>2.12</v>
+        <v>1.93</v>
       </c>
       <c r="AI23" t="n">
-        <v>2.84</v>
+        <v>2.39</v>
       </c>
     </row>
     <row r="24">
@@ -3172,13 +3172,13 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>5.08</v>
+        <v>4.52</v>
       </c>
       <c r="H24" t="n">
-        <v>4.19</v>
+        <v>4.3</v>
       </c>
       <c r="I24" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="J24" t="n">
         <v>1.02</v>
@@ -3193,10 +3193,10 @@
         <v>4.75</v>
       </c>
       <c r="N24" t="n">
-        <v>1.52</v>
+        <v>1.49</v>
       </c>
       <c r="O24" t="n">
-        <v>2.45</v>
+        <v>2.44</v>
       </c>
       <c r="P24" t="n">
         <v>1.25</v>
@@ -3205,10 +3205,10 @@
         <v>3.72</v>
       </c>
       <c r="R24" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="S24" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="T24" t="n">
         <v>2.2</v>
@@ -3235,13 +3235,13 @@
         <v>3.15</v>
       </c>
       <c r="AB24" t="n">
-        <v>3.36</v>
+        <v>3.74</v>
       </c>
       <c r="AC24" t="n">
-        <v>9.1</v>
+        <v>8</v>
       </c>
       <c r="AD24" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="AE24" t="n">
         <v>0</v>
@@ -3250,7 +3250,7 @@
         <v>1.3</v>
       </c>
       <c r="AG24" t="n">
-        <v>1.53</v>
+        <v>1.83</v>
       </c>
       <c r="AH24" t="n">
         <v>1.89</v>
@@ -3287,13 +3287,13 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.27</v>
+        <v>1.32</v>
       </c>
       <c r="H25" t="n">
-        <v>4.45</v>
+        <v>4.8</v>
       </c>
       <c r="I25" t="n">
-        <v>8.050000000000001</v>
+        <v>7.19</v>
       </c>
       <c r="J25" t="n">
         <v>1.03</v>
@@ -3308,10 +3308,10 @@
         <v>3.6</v>
       </c>
       <c r="N25" t="n">
-        <v>1.69</v>
+        <v>1.8</v>
       </c>
       <c r="O25" t="n">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="P25" t="n">
         <v>1.36</v>
@@ -3402,13 +3402,13 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="H26" t="n">
-        <v>2.72</v>
+        <v>2.8</v>
       </c>
       <c r="I26" t="n">
-        <v>2.72</v>
+        <v>2.94</v>
       </c>
       <c r="J26" t="n">
         <v>1.11</v>
@@ -3417,16 +3417,16 @@
         <v>6</v>
       </c>
       <c r="L26" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="M26" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="N26" t="n">
-        <v>2.46</v>
+        <v>2.69</v>
       </c>
       <c r="O26" t="n">
-        <v>1.37</v>
+        <v>1.41</v>
       </c>
       <c r="P26" t="n">
         <v>1.59</v>
@@ -3517,13 +3517,13 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>5.31</v>
+        <v>4.95</v>
       </c>
       <c r="H27" t="n">
-        <v>4.66</v>
+        <v>4.25</v>
       </c>
       <c r="I27" t="n">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="J27" t="n">
         <v>1.02</v>
@@ -3538,10 +3538,10 @@
         <v>4.5</v>
       </c>
       <c r="N27" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="O27" t="n">
-        <v>2.25</v>
+        <v>2.24</v>
       </c>
       <c r="P27" t="n">
         <v>1.29</v>
@@ -3632,13 +3632,13 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="H28" t="n">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="I28" t="n">
-        <v>2.95</v>
+        <v>2.68</v>
       </c>
       <c r="J28" t="n">
         <v>1.09</v>
@@ -3653,10 +3653,10 @@
         <v>2.55</v>
       </c>
       <c r="N28" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="O28" t="n">
-        <v>1.49</v>
+        <v>1.54</v>
       </c>
       <c r="P28" t="n">
         <v>1.52</v>
@@ -3695,28 +3695,28 @@
         <v>2.88</v>
       </c>
       <c r="AB28" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AC28" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AD28" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AE28" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AF28" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AG28" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AH28" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AI28" t="n">
-        <v>0</v>
+        <v>2.63</v>
       </c>
     </row>
     <row r="29">
@@ -3747,13 +3747,13 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>3.85</v>
+        <v>3.36</v>
       </c>
       <c r="H29" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I29" t="n">
-        <v>1.91</v>
+        <v>2.15</v>
       </c>
       <c r="J29" t="n">
         <v>1.07</v>
@@ -3768,10 +3768,10 @@
         <v>2.75</v>
       </c>
       <c r="N29" t="n">
-        <v>2.26</v>
+        <v>2.19</v>
       </c>
       <c r="O29" t="n">
-        <v>1.52</v>
+        <v>1.6</v>
       </c>
       <c r="P29" t="n">
         <v>1.49</v>
@@ -3862,13 +3862,13 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="H30" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="I30" t="n">
-        <v>5.6</v>
+        <v>5.2</v>
       </c>
       <c r="J30" t="n">
         <v>1.06</v>
@@ -3883,10 +3883,10 @@
         <v>3.5</v>
       </c>
       <c r="N30" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="O30" t="n">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="P30" t="n">
         <v>1.36</v>
@@ -3934,7 +3934,7 @@
         <v>5.6</v>
       </c>
       <c r="AE30" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="AF30" t="n">
         <v>1.3</v>
@@ -3977,13 +3977,13 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.89</v>
+        <v>1.99</v>
       </c>
       <c r="H31" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I31" t="n">
-        <v>3.8</v>
+        <v>3.64</v>
       </c>
       <c r="J31" t="n">
         <v>1.07</v>
@@ -3998,10 +3998,10 @@
         <v>3</v>
       </c>
       <c r="N31" t="n">
-        <v>2.03</v>
+        <v>2.09</v>
       </c>
       <c r="O31" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="P31" t="n">
         <v>1.4</v>
@@ -4092,13 +4092,13 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.57</v>
+        <v>2.38</v>
       </c>
       <c r="H32" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I32" t="n">
-        <v>2.57</v>
+        <v>2.84</v>
       </c>
       <c r="J32" t="n">
         <v>1.06</v>
@@ -4113,10 +4113,10 @@
         <v>3.25</v>
       </c>
       <c r="N32" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="O32" t="n">
-        <v>1.74</v>
+        <v>1.8</v>
       </c>
       <c r="P32" t="n">
         <v>1.4</v>
@@ -4207,13 +4207,13 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.49</v>
+        <v>1.63</v>
       </c>
       <c r="H33" t="n">
         <v>4</v>
       </c>
       <c r="I33" t="n">
-        <v>5.8</v>
+        <v>4.51</v>
       </c>
       <c r="J33" t="n">
         <v>1.05</v>
@@ -4228,10 +4228,10 @@
         <v>3.4</v>
       </c>
       <c r="N33" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="O33" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="P33" t="n">
         <v>1.36</v>
@@ -4313,22 +4313,22 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>Novorizontino</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Tombense</t>
+          <t>Avaí</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.16</v>
+        <v>1.78</v>
       </c>
       <c r="H34" t="n">
-        <v>3.1</v>
+        <v>3.35</v>
       </c>
       <c r="I34" t="n">
-        <v>3.2</v>
+        <v>4.26</v>
       </c>
       <c r="J34" t="n">
         <v>1.1</v>
@@ -4346,67 +4346,67 @@
         <v>2.29</v>
       </c>
       <c r="O34" t="n">
-        <v>1.51</v>
+        <v>1.55</v>
       </c>
       <c r="P34" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.5</v>
+        <v>2.62</v>
       </c>
       <c r="R34" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S34" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="T34" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="U34" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="V34" t="n">
-        <v>1.6</v>
+        <v>1.85</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y34" t="n">
-        <v>1.49</v>
+        <v>2.1</v>
       </c>
       <c r="Z34" t="n">
-        <v>1.56</v>
+        <v>1.06</v>
       </c>
       <c r="AA34" t="n">
-        <v>3.05</v>
+        <v>3.16</v>
       </c>
       <c r="AB34" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AC34" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AD34" t="n">
-        <v>0</v>
+        <v>4.33</v>
       </c>
       <c r="AE34" t="n">
         <v>0</v>
       </c>
       <c r="AF34" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AG34" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AH34" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AI34" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="35">
@@ -4428,22 +4428,22 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Novorizontino</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Avaí</t>
+          <t>Tombense</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.83</v>
+        <v>2.15</v>
       </c>
       <c r="H35" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I35" t="n">
         <v>3.15</v>
-      </c>
-      <c r="I35" t="n">
-        <v>4.25</v>
       </c>
       <c r="J35" t="n">
         <v>1.1</v>
@@ -4458,70 +4458,70 @@
         <v>2.62</v>
       </c>
       <c r="N35" t="n">
-        <v>2.28</v>
+        <v>2.27</v>
       </c>
       <c r="O35" t="n">
-        <v>1.51</v>
+        <v>1.56</v>
       </c>
       <c r="P35" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.62</v>
+        <v>2.5</v>
       </c>
       <c r="R35" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S35" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="T35" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U35" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="V35" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AB35" t="n">
         <v>1.67</v>
       </c>
-      <c r="T35" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="U35" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="V35" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="W35" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="X35" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="Z35" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AA35" t="n">
-        <v>3.16</v>
-      </c>
-      <c r="AB35" t="n">
-        <v>0</v>
-      </c>
       <c r="AC35" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AD35" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="AE35" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AF35" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AG35" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AH35" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AI35" t="n">
-        <v>0</v>
+        <v>3.28</v>
       </c>
     </row>
     <row r="36">
@@ -4552,13 +4552,13 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.42</v>
+        <v>2.63</v>
       </c>
       <c r="H36" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I36" t="n">
-        <v>2.76</v>
+        <v>2.55</v>
       </c>
       <c r="J36" t="n">
         <v>1.06</v>
@@ -4573,10 +4573,10 @@
         <v>3.2</v>
       </c>
       <c r="N36" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="O36" t="n">
-        <v>1.62</v>
+        <v>1.72</v>
       </c>
       <c r="P36" t="n">
         <v>1.43</v>
